--- a/predator/figure/performance.xlsx
+++ b/predator/figure/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="12980" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13880" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="o1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Performance" sheetId="6" r:id="rId3"/>
     <sheet name="MemoryUsage" sheetId="3" r:id="rId4"/>
     <sheet name="Improvement" sheetId="4" r:id="rId5"/>
+    <sheet name="Sensitivity" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+  <si>
+    <t>SampleRate 0.1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleRate 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default SampleRate 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Defaults-no-prediction</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +270,70 @@
   </si>
   <si>
     <t>PREDATOR-NP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealApplications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbzip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfscan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memcached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">swaptions </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear_regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>streamcluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,6 +341,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -294,11 +378,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,6 +402,31 @@
   <c:lang val="en-US"/>
   <c:style val="18"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Execution Time Overhead</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.372092906703494"/>
+          <c:y val="0.0439297124600639"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -336,15 +449,15 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$E$2:$E$21</c:f>
+              <c:f>Performance!$E$2:$E$28</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Phoenix</c:v>
                 </c:pt>
@@ -399,7 +512,28 @@
                 <c:pt idx="17">
                   <c:v>x264 </c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
                 <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -407,10 +541,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$F$2:$F$21</c:f>
+              <c:f>Performance!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -460,6 +594,24 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -490,9 +642,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$E$2:$E$21</c:f>
+              <c:f>Performance!$E$2:$E$28</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Phoenix</c:v>
                 </c:pt>
@@ -547,7 +699,28 @@
                 <c:pt idx="17">
                   <c:v>x264 </c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
                 <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -555,10 +728,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$G$2:$G$21</c:f>
+              <c:f>Performance!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>23.43650793719243</c:v>
                 </c:pt>
@@ -608,7 +781,25 @@
                   <c:v>1.131678189798801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.522449583410472</c:v>
+                  <c:v>0.948430493273543</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.98711616930196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.010644706115343</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.705889079484209</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.001168053718772</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.999184172955333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.227801182246214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,9 +826,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$E$2:$E$21</c:f>
+              <c:f>Performance!$E$2:$E$28</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Phoenix</c:v>
                 </c:pt>
@@ -692,7 +883,28 @@
                 <c:pt idx="17">
                   <c:v>x264 </c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
                 <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>AVERAGE</c:v>
                 </c:pt>
               </c:strCache>
@@ -700,10 +912,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$H$2:$H$21</c:f>
+              <c:f>Performance!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>26.52222222312382</c:v>
                 </c:pt>
@@ -753,17 +965,35 @@
                   <c:v>1.155248271480525</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.699413487025245</c:v>
+                  <c:v>1.024932735426009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.980030062366072</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.033006840667728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.717324185270465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.011680537302189</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.997654497238425</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.361602029576126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88446968"/>
-        <c:axId val="88431624"/>
+        <c:axId val="87986184"/>
+        <c:axId val="87978168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88446968"/>
+        <c:axId val="87986184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,402 +1004,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1"/>
+              <a:defRPr sz="1000" b="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88431624"/>
+        <c:crossAx val="87978168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88431624"/>
+        <c:axId val="87978168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16.0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Normalized Runtime</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88446968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MemoryUsage!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Original</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>MemoryUsage!$D$2:$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>Phoenix</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>histogram</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kmeans</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>linear_regression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>matrix_multiply</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>reverse_index</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>string_match</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>word_count</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PARSEC</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>blackscholes </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>bodytrack </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>dedup </c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ferret </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>fluidanimate </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>streamcluster </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>swaptions </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>x264 </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AVERAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MemoryUsage!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MemoryUsage!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PREDATOR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>MemoryUsage!$D$2:$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>Phoenix</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>histogram</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kmeans</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>linear_regression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>matrix_multiply</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>reverse_index</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>string_match</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>word_count</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PARSEC</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>blackscholes </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>bodytrack </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>dedup </c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ferret </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>fluidanimate </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>streamcluster </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>swaptions </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>x264 </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AVERAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MemoryUsage!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="1">
-                  <c:v>1.00074625614805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.609202211690363</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.001336800088994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.07901534721167</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.240167387414256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.390510269377203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.008300135976882</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.063374557278058</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.065807799442897</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.204174019795903</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.553558464672959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.699192610976721</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.228685616410424</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.217004810709057</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.802499320836729</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.173557607481033</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.64607082596945</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="88324216"/>
-        <c:axId val="88327400"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="88324216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-2700000"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88327400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="88327400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="15.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1181,10 +1031,515 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Normalized Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87986184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.830296166568288"/>
+          <c:y val="0.225142134789062"/>
+          <c:w val="0.152023493969194"/>
+          <c:h val="0.368405511811024"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Relative Memory Overhead</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.382664704182619"/>
+          <c:y val="0.0610902255639098"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MemoryUsage!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>MemoryUsage!$F$2:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bodytrack </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dedup </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ferret </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fluidanimate </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>swaptions </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>x264 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MemoryUsage!$G$2:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MemoryUsage!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PREDATOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>MemoryUsage!$F$2:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bodytrack </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dedup </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ferret </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fluidanimate </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>swaptions </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>x264 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MemoryUsage!$H$2:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="1">
+                  <c:v>1.00074625614805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.609202211690363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.001336800088994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.07901534721167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.240167387414256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.390510269377203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.008300135976882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.063374557278058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.065807799442897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.204174019795903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.553558464672959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.699192610976721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.228685616410424</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.217004810709057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.802499320836729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.173557607481033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.835761589403973</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.419657631096002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.35185129349334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.567336510843775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.116584425310862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.210378393893598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="222985192"/>
+        <c:axId val="222979288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222985192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222979288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222979288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Normalized Memory Uage</a:t>
                 </a:r>
               </a:p>
@@ -1194,7 +1549,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88324216"/>
+        <c:crossAx val="222985192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1206,10 +1561,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.843043313615649"/>
-          <c:y val="0.236452474690664"/>
-          <c:w val="0.129194415063789"/>
-          <c:h val="0.221643922799124"/>
+          <c:x val="0.885289406198078"/>
+          <c:y val="0.264647963412468"/>
+          <c:w val="0.0982311457054107"/>
+          <c:h val="0.254538659641229"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1217,7 +1572,497 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1" i="0"/>
+            <a:defRPr sz="1200" b="1" i="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Absolute Memory Overhead</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.389870786280718"/>
+          <c:y val="0.0555555555555555"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MemoryUsage!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>MemoryUsage!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_Multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bodytrack </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dedup </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ferret </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fluidanimate </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>swaptions </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>x264 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MemoryUsage!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="1">
+                  <c:v>1340.0224609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9453125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>517.9404296875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.9873046875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.78125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>456.3115234375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510.6279296875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.916015625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.703125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.7275390625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.400390625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.169921875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.7314453125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.337890625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5947265625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.208984375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.94921875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.919921875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>261.849609375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129.5546875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187.6796875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>735.41796875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MemoryUsage!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PREDATOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>MemoryUsage!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>matrix_Multiply</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PARSEC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>blackscholes </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bodytrack </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dedup </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ferret </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fluidanimate </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>streamcluster </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>swaptions </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>x264 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RealApplications</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>aget</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Boost</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pbzip2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>pfscan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MemoryUsage!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="1">
+                  <c:v>1341.0224609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9580078125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>518.6328125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.5419921875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.9462890625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>634.505859375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>514.8662109375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.3115234375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.763671875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.326171875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129.5673828125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.638671875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.1123046875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.3642578125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.0478515625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.97265625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.16015625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.1640625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>261.849609375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1341.130859375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>294.1572265625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>821.15625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="255519576"/>
+        <c:axId val="254843528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="255519576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254843528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254843528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1400.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Memory Usage(MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255519576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.903111339563426"/>
+          <c:y val="0.438273420722978"/>
+          <c:w val="0.0803869406226357"/>
+          <c:h val="0.145585965461704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1233,12 +2078,37 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:style val="18"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Objects Alignment Sensitivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.254264873140857"/>
+          <c:y val="0.0555555555555555"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1321,11 +2191,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="225262792"/>
-        <c:axId val="225326872"/>
+        <c:axId val="87969432"/>
+        <c:axId val="87954040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225262792"/>
+        <c:axId val="87969432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,19 +2206,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225326872"/>
+        <c:crossAx val="87954040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225326872"/>
+        <c:axId val="87954040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,10 +2231,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Runtime (Seconds)</a:t>
                 </a:r>
               </a:p>
@@ -1374,11 +2244,365 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225262792"/>
+        <c:crossAx val="87969432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Sample Rate Sensitivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.187942602065253"/>
+          <c:y val="0.0509259259259259"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sensitivity!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleRate 0.1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sensitivity!$E$2:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sensitivity!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.800945598176787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.895040650406504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.958738678295597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.944088120472334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.000976302469158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.919957869964076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sensitivity!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default SampleRate 1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sensitivity!$E$2:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sensitivity!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sensitivity!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleRate 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sensitivity!$E$2:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear_regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>word_count</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sensitivity!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.993656113457449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.258048780487805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.966202616584812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.025655326267479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.023342504659625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.053381068291434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="88019992"/>
+        <c:axId val="87871112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88019992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87871112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87871112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Normalized Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88019992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.637030480678966"/>
+          <c:y val="0.283575021872266"/>
+          <c:w val="0.331339349004732"/>
+          <c:h val="0.284701443569554"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -1394,15 +2618,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1425,19 +2649,126 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08548</cdr:x>
+      <cdr:y>0.17572</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.13232</cdr:x>
+      <cdr:y>0.26837</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="741680" y="558800"/>
+          <a:ext cx="406400" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13349</cdr:x>
+      <cdr:y>0.16933</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.24941</cdr:x>
+      <cdr:y>0.26837</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1158240" y="538480"/>
+          <a:ext cx="1005840" cy="314960"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12295</cdr:x>
+      <cdr:y>0.15335</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16159</cdr:x>
+      <cdr:y>0.26837</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1066800" y="487680"/>
+          <a:ext cx="335280" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>26</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1456,10 +2787,260 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54495</cdr:x>
+      <cdr:y>0.16353</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5852</cdr:x>
+      <cdr:y>0.26128</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6035040" y="441960"/>
+          <a:ext cx="445691" cy="264160"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>7.8</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63486</cdr:x>
+      <cdr:y>0.16353</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67064</cdr:x>
+      <cdr:y>0.2594</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7030720" y="441960"/>
+          <a:ext cx="396240" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>6.8</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72189</cdr:x>
+      <cdr:y>0.16353</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77007</cdr:x>
+      <cdr:y>0.25376</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7994491" y="441960"/>
+          <a:ext cx="533533" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>10.3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1473,6 +3054,41 @@
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1829,21 +3445,21 @@
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>4.4000000000000004</v>
@@ -1872,7 +3488,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2.08</v>
@@ -1901,7 +3517,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>10.51</v>
@@ -1927,7 +3543,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>9.4</v>
@@ -1953,7 +3569,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>2.23</v>
@@ -1979,7 +3595,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>5.75</v>
@@ -2005,7 +3621,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>1.79</v>
@@ -2031,7 +3647,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>0.86</v>
@@ -2060,7 +3676,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>10.49</v>
@@ -2089,7 +3705,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>20.399999999999999</v>
@@ -2118,7 +3734,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>3.4</v>
@@ -2144,7 +3760,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>2.2400000000000002</v>
@@ -2173,7 +3789,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>5.7</v>
@@ -2199,7 +3815,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
@@ -2225,7 +3841,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>19.04</v>
@@ -2372,6 +3988,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2400,21 +4017,21 @@
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1.1100000000000001</v>
@@ -2443,7 +4060,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2.339</v>
@@ -2472,7 +4089,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>10.359</v>
@@ -2498,7 +4115,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2524,7 +4141,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>2.2999999999999998</v>
@@ -2550,7 +4167,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>11.47</v>
@@ -2576,7 +4193,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>2.669</v>
@@ -2602,7 +4219,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>0.91900000000000004</v>
@@ -2631,7 +4248,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>10.29</v>
@@ -2660,7 +4277,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>20.29</v>
@@ -2689,7 +4306,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>3.47</v>
@@ -2715,7 +4332,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>0.439</v>
@@ -2744,7 +4361,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>5.5590000000000002</v>
@@ -2770,7 +4387,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2.88</v>
@@ -2796,7 +4413,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>18.75</v>
@@ -2943,6 +4560,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2956,10 +4574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" topLeftCell="A21" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showRuler="0" view="pageLayout" topLeftCell="A33" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2970,38 +4588,38 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.78749999997700004</v>
@@ -3013,7 +4631,7 @@
         <v>18.456250000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3033,7 +4651,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>10.2775</v>
@@ -3045,27 +4663,27 @@
         <v>126.43</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G19" si="0">D4/B4</f>
+        <f t="shared" ref="G4:G26" si="0">D4/B4</f>
         <v>12.30162977377767</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H19" si="1">C4/B4</f>
+        <f t="shared" ref="H4:H26" si="1">C4/B4</f>
         <v>12.092434930673802</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I19" si="2">D4/B4</f>
+        <f t="shared" ref="I4:I26" si="2">D4/B4</f>
         <v>12.30162977377767</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>4.7237499999999999</v>
@@ -3077,7 +4695,7 @@
         <v>15.3362499999</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3097,7 +4715,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>18.5487500001</v>
@@ -3109,7 +4727,7 @@
         <v>26.923749999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3129,7 +4747,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>20.144999999900001</v>
@@ -3141,7 +4759,7 @@
         <v>72.236249999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3161,7 +4779,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>2.13624999998</v>
@@ -3173,7 +4791,7 @@
         <v>14.89625</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3193,7 +4811,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>2.42875000008</v>
@@ -3205,7 +4823,7 @@
         <v>5.9625000000200004</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3225,7 +4843,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>2.6124999999299998</v>
@@ -3237,7 +4855,7 @@
         <v>9.0112499999800004</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3257,15 +4875,15 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>10.1800000001</v>
@@ -3277,7 +4895,7 @@
         <v>12.38</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3297,7 +4915,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1.60250000015</v>
@@ -3309,7 +4927,7 @@
         <v>14.1737499998</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3329,7 +4947,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1.2037500001000001</v>
@@ -3341,7 +4959,7 @@
         <v>3.39749999996</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3361,7 +4979,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>5.7424999999299997</v>
@@ -3373,7 +4991,7 @@
         <v>68.188749999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3393,7 +5011,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>1.7950000001599999</v>
@@ -3405,7 +5023,7 @@
         <v>9.1825000001100001</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3425,7 +5043,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2.9012500000000001</v>
@@ -3437,7 +5055,7 @@
         <v>17.055000000100002</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3457,7 +5075,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>4.4575000000199996</v>
@@ -3469,7 +5087,7 @@
         <v>47.143750000200001</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3489,7 +5107,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>3.97750000004</v>
@@ -3501,7 +5119,7 @@
         <v>4.5012499999699997</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3519,27 +5137,235 @@
         <v>1.1316781897988013</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="str">
+        <f>A20</f>
+        <v>RealApplications</v>
+      </c>
+    </row>
     <row r="21" spans="1:9">
-      <c r="E21" t="s">
-        <v>43</v>
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>4.46</v>
+      </c>
+      <c r="C21">
+        <v>4.5712000000000002</v>
+      </c>
+      <c r="D21">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ref="E21:E26" si="3">A21</f>
+        <v>aget</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <f>AVERAGE(G3:G19)</f>
-        <v>6.5224495834104719</v>
+        <f t="shared" si="0"/>
+        <v>0.94843049327354267</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(H3:H19)</f>
-        <v>6.6994134870252449</v>
+        <f t="shared" si="1"/>
+        <v>1.0249327354260089</v>
       </c>
       <c r="I21">
-        <f>AVERAGE(I3:I19)</f>
-        <v>6.5224495834104719</v>
+        <f t="shared" si="2"/>
+        <v>0.94843049327354267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>4.65699999994</v>
+      </c>
+      <c r="C22">
+        <v>18.5350000002</v>
+      </c>
+      <c r="D22">
+        <v>18.568000000200001</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>Boost</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3.9871161693019603</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.9800300623660729</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>3.9871161693019603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>121.187</v>
+      </c>
+      <c r="C23">
+        <v>125.187</v>
+      </c>
+      <c r="D23">
+        <v>122.477</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>Memcached</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.0106447061153425</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.0330068406677284</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.0106447061153425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>8.7449999999300001</v>
+      </c>
+      <c r="C24">
+        <v>23.763000000000002</v>
+      </c>
+      <c r="D24">
+        <v>23.662999999899998</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>MySQL</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>2.7058890794842094</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>2.7173241852704648</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>2.7058890794842094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>8.5612500001399994</v>
+      </c>
+      <c r="C25">
+        <v>8.6612500001200008</v>
+      </c>
+      <c r="D25">
+        <v>8.5712500000399992</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>pbzip2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.0011680537187719</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1.0116805373021891</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.0011680537187719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>24.515000000000001</v>
+      </c>
+      <c r="C26">
+        <v>24.4574999998</v>
+      </c>
+      <c r="D26">
+        <v>24.495000000000001</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>pfscan</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.99918417295533346</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0.99765449723842536</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.99918417295533346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(G3:G26)</f>
+        <v>5.227801182246214</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(H3:H26)</f>
+        <v>5.3616020295761269</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(I3:I26)</f>
+        <v>5.227801182246214</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3554,394 +5380,736 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" topLeftCell="A21" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A54" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="5" t="str">
+        <f>D1</f>
+        <v>Original</v>
+      </c>
+      <c r="C1" s="5" t="str">
+        <f>E1</f>
+        <v>PREDATOR</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5">
+        <f>D3/1024</f>
+        <v>1340.0224609375</v>
+      </c>
+      <c r="C3" s="5">
+        <f>E3/1024</f>
+        <v>1341.0224609375</v>
+      </c>
+      <c r="D3">
+        <v>1372183</v>
+      </c>
+      <c r="E3">
+        <v>1373207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>E3/D3</f>
+        <v>1.0007462561480502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:B26" si="0">D4/1024</f>
+        <v>4.9453125</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C26" si="1">E4/1024</f>
+        <v>7.9580078125</v>
+      </c>
+      <c r="D4">
+        <v>5064</v>
+      </c>
+      <c r="E4">
+        <v>8149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H25" si="2">E4/D4</f>
+        <v>1.6092022116903633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>517.9404296875</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>518.6328125</v>
+      </c>
+      <c r="D5">
+        <v>530371</v>
+      </c>
+      <c r="E5">
+        <v>531080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.0013368000889944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>44.9873046875</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>48.5419921875</v>
+      </c>
+      <c r="D6">
+        <v>46067</v>
+      </c>
+      <c r="E6">
+        <v>49707</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.0790153472116699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>104.78125</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>129.9462890625</v>
+      </c>
+      <c r="D7">
+        <v>107296</v>
+      </c>
+      <c r="E7">
+        <v>133065</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.2401673874142558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>456.3115234375</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>634.505859375</v>
+      </c>
+      <c r="D8">
+        <v>467263</v>
+      </c>
+      <c r="E8">
+        <v>649734</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.3905102693772029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>510.6279296875</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>514.8662109375</v>
+      </c>
+      <c r="D9">
+        <v>522883</v>
+      </c>
+      <c r="E9">
+        <v>527223</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.008300135976882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>100.916015625</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>107.3115234375</v>
+      </c>
+      <c r="D10">
+        <v>103338</v>
+      </c>
+      <c r="E10">
+        <v>109887</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.0633745572780584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>61.703125</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>65.763671875</v>
+      </c>
+      <c r="D12">
+        <v>63184</v>
+      </c>
+      <c r="E12">
+        <v>67342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.0658077994428969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>12.7275390625</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>15.326171875</v>
+      </c>
+      <c r="D13">
+        <v>13033</v>
+      </c>
+      <c r="E13">
+        <v>15694</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.2041740197959028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>83.400390625</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>129.5673828125</v>
+      </c>
+      <c r="D14">
+        <v>85402</v>
+      </c>
+      <c r="E14">
+        <v>132677</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.5535584646729586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>62.169921875</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>105.638671875</v>
+      </c>
+      <c r="D15">
+        <v>63662</v>
+      </c>
+      <c r="E15">
+        <v>108174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.6991926109767208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>119.7314453125</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>147.1123046875</v>
+      </c>
+      <c r="D16">
+        <v>122605</v>
+      </c>
+      <c r="E16">
+        <v>150643</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.2286856164104236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>9.337890625</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>11.3642578125</v>
+      </c>
+      <c r="D17">
+        <v>9562</v>
+      </c>
+      <c r="E17">
+        <v>11637</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.2170048107090568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>1372183</v>
-      </c>
-      <c r="C3">
-        <v>1373207</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5947265625</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>28.0478515625</v>
+      </c>
+      <c r="D18">
+        <v>3681</v>
+      </c>
+      <c r="E18">
+        <v>28721</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="F3">
-        <f>C3/B3</f>
-        <v>1.0007462561480502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>5064</v>
-      </c>
-      <c r="C4">
-        <v>8149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>7.8024993208367288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>33.208984375</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>38.97265625</v>
+      </c>
+      <c r="D19">
+        <v>34006</v>
+      </c>
+      <c r="E19">
+        <v>39908</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F19" si="0">C4/B4</f>
-        <v>1.6092022116903633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>530371</v>
-      </c>
-      <c r="C5">
-        <v>531080</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.1735576074810328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="str">
+        <f>A20</f>
+        <v>RealApplications</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.94921875</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>20.16015625</v>
+      </c>
+      <c r="D21">
+        <v>3020</v>
+      </c>
+      <c r="E21">
+        <v>20644</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ref="F21:F26" si="3">A21</f>
+        <v>aget</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1.0013368000889944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>46067</v>
-      </c>
-      <c r="C6">
-        <v>49707</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>6.8357615894039734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>64.919921875</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>92.1640625</v>
+      </c>
+      <c r="D22">
+        <v>66478</v>
+      </c>
+      <c r="E22">
+        <v>94376</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>Boost</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.0790153472116699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>107296</v>
-      </c>
-      <c r="C7">
-        <v>133065</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1.4196576310960016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>261.849609375</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>261.849609375</v>
+      </c>
+      <c r="D23">
+        <v>268134</v>
+      </c>
+      <c r="E23">
+        <v>268134</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>Memcached</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.2401673874142558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>467263</v>
-      </c>
-      <c r="C8">
-        <v>649734</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1.3905102693772029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>522883</v>
-      </c>
-      <c r="C9">
-        <v>527223</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>129.5546875</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>1341.130859375</v>
+      </c>
+      <c r="D24">
+        <v>132664</v>
+      </c>
+      <c r="E24">
+        <v>1373318</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>MySQL</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.008300135976882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>103338</v>
-      </c>
-      <c r="C10">
-        <v>109887</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>10.351851293493336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>187.6796875</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>294.1572265625</v>
+      </c>
+      <c r="D25">
+        <v>192184</v>
+      </c>
+      <c r="E25">
+        <v>301217</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>pbzip2</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.0633745572780584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>63184</v>
-      </c>
-      <c r="C12">
-        <v>67342</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1.5673365108437747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>735.41796875</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>821.15625</v>
+      </c>
+      <c r="D26">
+        <v>753068</v>
+      </c>
+      <c r="E26">
+        <v>840864</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>pfscan</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1.0658077994428969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>13033</v>
-      </c>
-      <c r="C13">
-        <v>15694</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
+      <c r="H26">
+        <f>E26/D26</f>
+        <v>1.1165844253108617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D3:D26)</f>
+        <v>4965148</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E3:E26)</f>
+        <v>6835401</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1.2041740197959028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>85402</v>
-      </c>
-      <c r="C14">
-        <v>132677</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.5535584646729586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>63662</v>
-      </c>
-      <c r="C15">
-        <v>108174</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.6991926109767208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>122605</v>
-      </c>
-      <c r="C16">
-        <v>150643</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.2286856164104236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>9562</v>
-      </c>
-      <c r="C17">
-        <v>11637</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1.2170048107090568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>3681</v>
-      </c>
-      <c r="C18">
-        <v>28721</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>7.8024993208367288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>34006</v>
-      </c>
-      <c r="C19">
-        <v>39908</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1.1735576074810328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f>AVERAGE(F3:F19)</f>
-        <v>1.6460708259694499</v>
+      <c r="H28">
+        <f>AVERAGE(H3:H26)</f>
+        <v>2.2103783938935977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="E29">
+        <f>E28/D28</f>
+        <v>1.376676183670658</v>
       </c>
     </row>
   </sheetData>
@@ -3962,23 +6130,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showRuler="0" view="pageLayout" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0.74750000000000005</v>
@@ -3993,7 +6161,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>6.0609999999999999</v>
@@ -4008,7 +6176,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>2.5987499998899999</v>
@@ -4023,7 +6191,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>2.9450000000199998</v>
@@ -4045,7 +6213,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>4.5219999999700002</v>
@@ -4064,6 +6232,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="C9">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="2">(B9/C9)-1</f>
+        <v>3.8483630097644994E-2</v>
+      </c>
+    </row>
     <row r="10" spans="1:6">
       <c r="E10">
         <v>2.7389999999699999</v>
@@ -4075,7 +6255,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>0.346999999974</v>
@@ -4083,7 +6263,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>3.98799999999</v>
@@ -4091,7 +6271,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>4.5890000000600004</v>
@@ -4099,7 +6279,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>5.1849999999599996</v>
@@ -4107,7 +6287,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>4.70999999996</v>
@@ -4115,7 +6295,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>2.3490000000200002</v>
@@ -4123,7 +6303,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>2.379</v>
@@ -4131,7 +6311,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>0.34599999999600001</v>
@@ -4142,6 +6322,217 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showRuler="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>16.728750000000002</v>
+      </c>
+      <c r="C2">
+        <v>20.886250000099999</v>
+      </c>
+      <c r="D2">
+        <v>20.7537499998</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2</f>
+        <v>histogram</v>
+      </c>
+      <c r="F2">
+        <f>B2/C2</f>
+        <v>0.80094559817678657</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>D2/C2</f>
+        <v>0.99365611345744864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>13.76125</v>
+      </c>
+      <c r="C3">
+        <v>15.375</v>
+      </c>
+      <c r="D3">
+        <v>19.342500000000001</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">A3</f>
+        <v>linear_regression</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="1">B3/C3</f>
+        <v>0.89504065040650405</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="2">D3/C3</f>
+        <v>1.2580487804878049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>14.289999999899999</v>
+      </c>
+      <c r="C4">
+        <v>14.904999999899999</v>
+      </c>
+      <c r="D4">
+        <v>14.401250000099999</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>reverse_index</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.958738678295597</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.96620261658481177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>8.4637500001100001</v>
+      </c>
+      <c r="C5">
+        <v>8.9650000000799999</v>
+      </c>
+      <c r="D5">
+        <v>9.1950000000699994</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>word_count</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.94408812047233392</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.0256553262674788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>14.0974999999</v>
+      </c>
+      <c r="C6">
+        <v>14.08375</v>
+      </c>
+      <c r="D6">
+        <v>14.4125</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>streamcluster</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.0009763024691578</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.0233425046596254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(F2:F6)</f>
+        <v>0.9199578699640758</v>
+      </c>
+      <c r="G8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(H2:H6)</f>
+        <v>1.053381068291434</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
